--- a/app/opengl.xlsx
+++ b/app/opengl.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="1540" windowWidth="13780" windowHeight="14140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1 (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId3"/>
+    <sheet name="工作表1 (3)" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t xml:space="preserve"> -1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,35 +40,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右翻转：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纹理坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的是COORD_FLIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点坐标对应的是TEXTURE_COORD_FLIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左右翻转：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纹理坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应的是COORD_FLIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶点坐标对应的是TEXTURE_COORD_FLIP</t>
+    <t>T1(0,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2(1,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4(1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1(0,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4(1,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3(0,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> v3(-1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4(1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1( -1, -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2(1,-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1(0,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2(1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3(0,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4(1,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2(1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3(0,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> V1(-1, -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2(1,-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3( -1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V4(1,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,16 +172,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -170,11 +275,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -182,8 +323,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -237,201 +402,11 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1181100" y="5334000"/>
-          <a:ext cx="3505200" cy="2844800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5359400" y="5461000"/>
-          <a:ext cx="2641600" cy="2260600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13804900" y="5143500"/>
-          <a:ext cx="3340100" cy="3340100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1181100" y="5334000"/>
-          <a:ext cx="3505200" cy="2844800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5359400" y="5461000"/>
-          <a:ext cx="2641600" cy="2260600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -453,7 +428,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -470,10 +445,243 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546099</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5003800" y="4798218"/>
+          <a:ext cx="3797299" cy="2135981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>52211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="8089900"/>
+          <a:ext cx="9144000" cy="4154311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>825499</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57041</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1650999" y="1727199"/>
+          <a:ext cx="1708042" cy="2387601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="1511300"/>
+          <a:ext cx="2184400" cy="2184400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546099</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5003800" y="4798218"/>
+          <a:ext cx="3797299" cy="2135981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>825499</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>111553</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1650999" y="1727199"/>
+          <a:ext cx="1762554" cy="2463801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -840,24 +1048,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="F15" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -916,30 +1124,30 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
         <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -957,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:J27"/>
+  <dimension ref="B9:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -973,10 +1181,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -1021,44 +1229,62 @@
       <c r="H16" s="3"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:12">
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="2:10">
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+    <row r="18" spans="2:12">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10">
-      <c r="B19" t="s">
+    <row r="19" spans="2:12">
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E23" t="s">
         <v>3</v>
       </c>
-      <c r="G19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="6:12">
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1075,6 +1301,269 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B9:L87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="O79" sqref="O79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="6:12">
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="6:12">
+      <c r="F74" s="1"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="6:12">
+      <c r="F75" s="3"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" spans="6:12">
+      <c r="F76" s="3"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="4"/>
+    </row>
+    <row r="77" spans="6:12">
+      <c r="F77" s="3"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="4"/>
+    </row>
+    <row r="78" spans="6:12">
+      <c r="F78" s="3"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="4"/>
+    </row>
+    <row r="79" spans="6:12">
+      <c r="F79" s="3"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="4"/>
+    </row>
+    <row r="80" spans="6:12">
+      <c r="F80" s="3"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="4"/>
+    </row>
+    <row r="81" spans="6:12">
+      <c r="F81" s="3"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="4"/>
+    </row>
+    <row r="82" spans="6:12">
+      <c r="F82" s="3"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="4"/>
+    </row>
+    <row r="83" spans="6:12">
+      <c r="F83" s="3"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="4"/>
+    </row>
+    <row r="84" spans="6:12">
+      <c r="F84" s="3"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="4"/>
+    </row>
+    <row r="85" spans="6:12">
+      <c r="F85" s="3"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="4"/>
+    </row>
+    <row r="86" spans="6:12">
+      <c r="F86" s="3"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" spans="6:12">
+      <c r="F87" s="5"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
